--- a/input_csv/14_Eingabegeraete/artikel.xlsx
+++ b/input_csv/14_Eingabegeraete/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\14_Eingabegeraete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7C15B2-734B-40B5-A2B9-DD200C6EC055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3BB5E2-C679-48A4-A869-143DB5BEF2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D4A25BE-073B-46B2-9B4D-C2728C2E61CD}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Artikelname</t>
   </si>
@@ -31,41 +31,65 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>Logitech Tastatur K120 USB Schwarz</t>
-  </si>
-  <si>
-    <t>Maus und Tastatur Set - Kabelgebunden - 88884075</t>
-  </si>
-  <si>
-    <t>101045-a</t>
+    <t>be quiet! Dark Mount Silent Linear, Gaming-Tastatur</t>
+  </si>
+  <si>
+    <t>be quiet! Light Mount Silent Linear, Gaming-Tastatur</t>
+  </si>
+  <si>
+    <t>Cerberus Combo Gaming Keyboard and Mouse</t>
+  </si>
+  <si>
+    <t>Corsair K65 Plus Wireless Tastatur</t>
+  </si>
+  <si>
+    <t>Corsair K70 CORE RGB Gaming-Tastatur</t>
+  </si>
+  <si>
+    <t>Logitech Maus und Tastatur Set</t>
+  </si>
+  <si>
+    <t>Logitech MK540 Advanced</t>
+  </si>
+  <si>
+    <t>Maus und Tastatur Set KB-101DE</t>
+  </si>
+  <si>
+    <t>Razer Cobra Black - Maus</t>
+  </si>
+  <si>
+    <t>Logitech Slim Wireless Combo MK470</t>
+  </si>
+  <si>
+    <t>Razer Basilisk V3 X HyperSpeed</t>
+  </si>
+  <si>
+    <t>Razer BlackWidow V4 - Yellow Switches</t>
+  </si>
+  <si>
+    <t>Razer BlackWidow V4 (Green Switches)</t>
   </si>
   <si>
     <t>Razer Deathadder V4 Pro - Black</t>
   </si>
   <si>
-    <t>8,88642E+12</t>
-  </si>
-  <si>
-    <t>Logitech Slim Wireless Combo MK470 - Tastatur-und-Maus-Set</t>
-  </si>
-  <si>
-    <t>0740617329919</t>
-  </si>
-  <si>
-    <t>Razer BlackWidow V4 (Green Switches) - Gaming Tastatur</t>
-  </si>
-  <si>
-    <t>8,88791E+12</t>
-  </si>
-  <si>
-    <t>Razer Basilisk V3 X HyperSpeed - Kabellose Gaming Maus</t>
+    <t>Razer Huntsman Mini (Red Switches)</t>
+  </si>
+  <si>
+    <t>Razer Huntsman V3 Pro Tenkeyless</t>
+  </si>
+  <si>
+    <t>Razer Ornata V3</t>
+  </si>
+  <si>
+    <t>Razer Viper V3 Pro - Black</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +220,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -542,9 +573,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -920,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52570CF7-C297-433B-9B35-6D953FAC1C36}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,65 +981,193 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>101065</v>
+        <v>107196</v>
       </c>
       <c r="C2" s="1">
-        <v>5099206021358</v>
+        <v>4260052192672</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>107197</v>
       </c>
       <c r="C3" s="1">
-        <v>4260455643573</v>
+        <v>4260052192573</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>107135</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8886419334743</v>
-      </c>
+        <v>102312</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>106815</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>106555</v>
+      </c>
+      <c r="C5" s="1">
+        <v>840006665564</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>106648</v>
+      </c>
+      <c r="C6" s="1">
+        <v>840006665649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>101067</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>106814</v>
+      </c>
+      <c r="C8">
+        <v>5099206077379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B9">
+        <v>106613</v>
+      </c>
+      <c r="C9">
+        <v>4260455648950</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>107133</v>
+      </c>
+      <c r="C10">
+        <v>8886419334095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>106815</v>
+      </c>
+      <c r="C11">
+        <v>5099206086456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>107134</v>
+      </c>
+      <c r="C12">
+        <v>8886419334316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>107137</v>
+      </c>
+      <c r="C13">
+        <v>8887910072554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
         <v>107138</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>107134</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
+      <c r="C14">
+        <v>8887910072721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>107135</v>
+      </c>
+      <c r="C15">
+        <v>8887910072721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>107139</v>
+      </c>
+      <c r="C16">
+        <v>8886419347095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>107140</v>
+      </c>
+      <c r="C17">
+        <v>8887910073377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>107141</v>
+      </c>
+      <c r="C18">
+        <v>8886419348689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>107136</v>
+      </c>
+      <c r="C19">
+        <v>8886419334491</v>
       </c>
     </row>
   </sheetData>

--- a/input_csv/14_Eingabegeraete/artikel.xlsx
+++ b/input_csv/14_Eingabegeraete/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\14_Eingabegeraete\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3BB5E2-C679-48A4-A869-143DB5BEF2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74177B66-2EF0-4E26-BD84-05B9753B2C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D4A25BE-073B-46B2-9B4D-C2728C2E61CD}"/>
   </bookViews>
